--- a/Data/UserLogin/Login/TestData.xlsx
+++ b/Data/UserLogin/Login/TestData.xlsx
@@ -1,32 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoTest\AutoTest\Data\UserLogin\Login\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673F3D7-A8FC-4996-8FFF-13FD3B5DA6BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$N$1</definedName>
     <definedName name="Method">Sheet2!$A$2:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Case_ID</t>
   </si>
@@ -73,12 +66,33 @@
     <t>TC_001</t>
   </si>
   <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>http://carchat.uat.k8s02.ecloud.virtueit.net:81</t>
+  </si>
+  <si>
+    <t>/user/v0/login</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
+    <t>{"authCode":"vj5BE+ZUUceq3Ycc5MfkElB/VMsKGyG+AqqOo8//JCMy9hp0Z3AiARLedPgG+9gOjOHwGqdcWjPbPtdDjDQqF6+U8tvTfrmQmZRhKmIZg0RpHfQZjEa7wDuHuKuvGQvIY5LvTI47vC3Oy9W2CUG0E4FKw+a0mxZM48CzQx+AOpASH6uE+ABKCkDDuEFFhOErfz3IiL+8AcLEqgExfNy3Cg==","toCorporationSerial":"002","encrytedData":"vj5BE+ZUUceq3Ycc5MfkElB/VMsKGyG+AqqOo8//JCMy9hp0Z3AiARLedPgG+9gOjOHwGqdcWjPbPtdDjDQqF6+U8tvTfrmQmZRhKmIZg0RpHfQZjEa7wDuHuKuvGQvIY5LvTI47vC3Oy9W2CUG0E+Cql3dJEXDe727wcz2oSNSWO0pe6HrOdaV4jkfxiCAzemVumwqe1pKU/O6rmJWKEI7/FrRQi/Qtj7/nkWuzlVQ1ZLraxRy2EMx8Msjbs1Cb","fromCorporationSerial":"001"}</t>
+  </si>
+  <si>
     <t>Content-Type:application/json;Accept-Charset:UTF-8</t>
   </si>
   <si>
+    <t>{"status":"0000_0","messages":["执行成功"],"result":{"token":"89218265b3b47a939d2301590c4f281a6cb071c29b571bf4089aded9f4c8ab10","phone":"18311111555","serial":"3dce1617916d4285a34f6caa00a38319","userId":"ecb388ae932dc5e4b16fcbb7a2498b7d","userType":null,"name":null,"nick":null,"image":null,"age":null,"gender":null,"thirdPartyToken":"48935c2e-a4f0-4426-9391-7ceeac4c807d"}}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>2019-04-02_14_08_43</t>
+  </si>
+  <si>
     <t>GET</t>
   </si>
   <si>
@@ -86,62 +100,181 @@
   </si>
   <si>
     <t>DELETE</t>
-  </si>
-  <si>
-    <t>/user/v0/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"authCode":"vj5BE+ZUUceq3Ycc5MfkElB/VMsKGyG+AqqOo8//JCMy9hp0Z3AiARLedPgG+9gOjOHwGqdcWjPbPtdDjDQqF6+U8tvTfrmQmZRhKmIZg0RpHfQZjEa7wDuHuKuvGQvIY5LvTI47vC3Oy9W2CUG0E4FKw+a0mxZM48CzQx+AOpASH6uE+ABKCkDDuEFFhOErfz3IiL+8AcLEqgExfNy3Cg==","toCorporationSerial":"002","encrytedData":"vj5BE+ZUUceq3Ycc5MfkElB/VMsKGyG+AqqOo8//JCMy9hp0Z3AiARLedPgG+9gOjOHwGqdcWjPbPtdDjDQqF6+U8tvTfrmQmZRhKmIZg0RpHfQZjEa7wDuHuKuvGQvIY5LvTI47vC3Oy9W2CUG0E+Cql3dJEXDe727wcz2oSNSWO0pe6HrOdaV4jkfxiCAzemVumwqe1pKU/O6rmJWKEI7/FrRQi/Qtj7/nkWuzlVQ1ZLraxRy2EMx8Msjbs1Cb","fromCorporationSerial":"001"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://carchat.uat.k8s02.ecloud.virtueit.net:81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="35">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -158,8 +291,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -195,55 +514,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164"/>
+    <xf borderId="0" fillId="15" fontId="8" numFmtId="0"/>
+    <xf borderId="4" fillId="16" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166"/>
+    <xf borderId="0" fillId="12" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167"/>
+    <xf borderId="0" fillId="14" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="6" fillId="17" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="9" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="9" numFmtId="0"/>
+    <xf borderId="8" fillId="23" fontId="16" numFmtId="0"/>
+    <xf borderId="4" fillId="23" fontId="15" numFmtId="0"/>
+    <xf borderId="10" fillId="26" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="9" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="34" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="33" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -528,40 +1031,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" pane="bottomLeft" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="72.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="72.8148148148148" defaultRowHeight="14.4" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="80" style="6" customWidth="1"/>
-    <col min="4" max="4" width="113.08984375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7" style="6" customWidth="1"/>
-    <col min="6" max="6" width="69.36328125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="69" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.90625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="26.36328125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="57.90625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="58.36328125" style="6" customWidth="1"/>
-    <col min="15" max="23" width="72.81640625" style="6" customWidth="1"/>
-    <col min="24" max="16384" width="72.81640625" style="6"/>
+    <col customWidth="1" max="1" min="1" style="3" width="13.8148148148148"/>
+    <col customWidth="1" max="2" min="2" style="3" width="62.9074074074074"/>
+    <col customWidth="1" max="3" min="3" style="3" width="80"/>
+    <col customWidth="1" max="4" min="4" style="3" width="54.5462962962963"/>
+    <col customWidth="1" max="5" min="5" style="3" width="7"/>
+    <col customWidth="1" max="6" min="6" style="3" width="69.3611111111111"/>
+    <col customWidth="1" max="7" min="7" style="3" width="69"/>
+    <col customWidth="1" max="8" min="8" style="3" width="21.9074074074074"/>
+    <col customWidth="1" max="9" min="9" style="3" width="26.3611111111111"/>
+    <col customWidth="1" max="10" min="10" style="3" width="57.9074074074074"/>
+    <col customWidth="1" max="11" min="11" style="3" width="14.5462962962963"/>
+    <col customWidth="1" max="12" min="12" style="3" width="10.5462962962963"/>
+    <col customWidth="1" max="13" min="13" style="3" width="15.0925925925926"/>
+    <col customWidth="1" max="14" min="14" style="3" width="58.3611111111111"/>
+    <col customWidth="1" max="23" min="15" style="3" width="72.8148148148148"/>
+    <col customWidth="1" max="16384" min="24" style="3" width="72.8148148148148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" s="10" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,103 +1112,118 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="120.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row customHeight="1" ht="120.5" r="2" s="10" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="n"/>
+      <c r="I2" s="7" t="n"/>
+      <c r="J2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>416</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="M2" s="9" t="n"/>
+      <c r="N2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="E2" type="list">
       <formula1>Method</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1CA1B881-2024-4FCE-AF4B-8635B9C0DC71}"/>
+    <hyperlink display="http://carchat.uat.k8s02.ecloud.virtueit.net:81" ref="C2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Data/UserLogin/Login/TestData.xlsx
+++ b/Data/UserLogin/Login/TestData.xlsx
@@ -84,13 +84,13 @@
     <t>Content-Type:application/json;Accept-Charset:UTF-8</t>
   </si>
   <si>
-    <t>{"status":"0000_0","messages":["执行成功"],"result":{"token":"89218265b3b47a939d2301590c4f281a6cb071c29b571bf4089aded9f4c8ab10","phone":"18311111555","serial":"3dce1617916d4285a34f6caa00a38319","userId":"ecb388ae932dc5e4b16fcbb7a2498b7d","userType":null,"name":null,"nick":null,"image":null,"age":null,"gender":null,"thirdPartyToken":"48935c2e-a4f0-4426-9391-7ceeac4c807d"}}</t>
+    <t>{"status":"0000_0","messages":["执行成功"],"result":{"token":"5f84196e64413de5e9216c0bef53adaf294712466a7672c1a84becb5c44079c3","phone":"18311111555","serial":"3dce1617916d4285a34f6caa00a38319","userId":"ecb388ae932dc5e4b16fcbb7a2498b7d","userType":null,"name":null,"nick":null,"image":null,"age":null,"gender":null,"thirdPartyToken":"dd0810bd-2414-4826-9de7-5c22853469d4"}}</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>2019-04-02_14_08_43</t>
+    <t>2019-04-02_15_55_44</t>
   </si>
   <si>
     <t>GET</t>
@@ -1140,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="9" t="n">
-        <v>416</v>
+        <v>699</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>22</v>
